--- a/biology/Botanique/Virola/Virola.xlsx
+++ b/biology/Botanique/Virola/Virola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Virola est un genre de plantes à fleurs  de la famille des Myristicaceae, et dont l'espèce type est Virola sebifera Aubl.. Il contient quelques espèces d'arbres néotropicaux de taille moyenne à grande.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Flora Online (WFO)       (02 février 2022)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Flora Online (WFO)       (02 février 2022) :
 Virola aequatorialis Muriel &amp; Balslev
 Virola albidiflora Ducke
 Virola bicuhyba (Schott) Warb.
@@ -562,7 +576,7 @@
 Virola urbaniana Warb.
 Virola venosa (Benth.) Warb.
 Virola weberbaueri Markgr.
-Selon GBIF       (02 février 2022)[3] :
+Selon GBIF       (02 février 2022) :
 Virola aequatorialis Muriel &amp; Balslev
 Virola albidiflora Ducke
 Virola allenii D.Santam. &amp; Aguilar
@@ -629,13 +643,13 @@
 Virola urbaniana Warb.
 Virola venosa (Benth.) Warb.
 Virola weberbaueri Markgr.
-Selon ITIS      (12 avr. 2011)[4] :
+Selon ITIS      (12 avr. 2011) :
 Virola calophylla (Spruce) Warb.
 Virola calophylloidea Markgr.
 Virola sebifera Aublet
 Virola surinamensis (Rol. ex Rottb.) Warb.
 Virola theiodora (Spruce ex Benth.) Warb.
-Selon NCBI  (12 avr. 2011)[5] :
+Selon NCBI  (12 avr. 2011) :
 Virola flexuosa
 Virola koschnyi
 Virola kwatae
@@ -673,7 +687,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Virola calophylla, Virola calophylloidea et Virola theiodora sont utilisés sous forme de poudre à priser de composition et de noms variables (nyakwana, hak-ú-dufha, paricá, yákee, epená) selon les ethnies, ils sont hallucinogènes et considérés comme enthéogènes.
 Le principal principe actif isolé de ces espèces est la 5-MeO-DMT mais on y trouve aussi parfois de faibles teneurs en autres tryptamines apparentées.
@@ -705,9 +721,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant[6] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant : 
 « VIROLA. {Tabula 345.) 
 MAS. 
 CAL. Perianthium monophyllum, turbinatum, tomentoſum, ferrugineum, tridentatum ; denticulis acutis.
